--- a/upload/excel_import/add_customer_format.xlsx
+++ b/upload/excel_import/add_customer_format.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Wishes\upload\excel_import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3931D0-74C1-4164-8CD0-8AC21319A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HEMADRI</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9A678D38-D8A5-40D7-BBE3-11A7889DC147}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Test</t>
   </si>
@@ -81,12 +75,42 @@
   <si>
     <t>919876543210</t>
   </si>
+  <si>
+    <t>column1</t>
+  </si>
+  <si>
+    <t>column2</t>
+  </si>
+  <si>
+    <t>column3</t>
+  </si>
+  <si>
+    <t>column4</t>
+  </si>
+  <si>
+    <t>column5</t>
+  </si>
+  <si>
+    <t>column6</t>
+  </si>
+  <si>
+    <t>column7</t>
+  </si>
+  <si>
+    <t>column8</t>
+  </si>
+  <si>
+    <t>column9</t>
+  </si>
+  <si>
+    <t>column10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,27 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,24 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,27 +470,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +506,38 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +556,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{83DD1C1D-899C-4BA7-8F07-25A119DCD3C6}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -547,24 +565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
